--- a/var_info/indv_panel_var_info/UAS_VariableInfo.xlsx
+++ b/var_info/indv_panel_var_info/UAS_VariableInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/TSRP/var_info/indv_panel_var_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/temprisk/var_info/indv_panel_var_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21193B35-0C3C-874B-B027-ACF6A165343C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2A1FA7-A4DB-AE40-A384-C759B70C5206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measures" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,17 @@
     <sheet name="PanelInfo" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Dates!$A$1:$O$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dems!$A$1:$O$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ID!$A$1:$O$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$O$267</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Dates!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dems!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ID!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$P$267</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3497" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3502" uniqueCount="182">
   <si>
     <t>pro</t>
   </si>
@@ -574,6 +574,9 @@
   </si>
   <si>
     <t>VAPE_WK_DIS8A</t>
+  </si>
+  <si>
+    <t>item_num</t>
   </si>
 </sst>
 </file>
@@ -1063,14 +1066,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1426,11 +1427,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O267"/>
+  <dimension ref="A1:P267"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="114" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="Q265" sqref="Q265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1439,54 +1440,57 @@
     <col min="4" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1511,7 +1515,7 @@
       <c r="H2" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>170</v>
       </c>
       <c r="J2">
@@ -1520,8 +1524,11 @@
       <c r="K2">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1546,7 +1553,7 @@
       <c r="H3" t="s">
         <v>169</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>170</v>
       </c>
       <c r="J3">
@@ -1555,8 +1562,11 @@
       <c r="K3">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1581,7 +1591,7 @@
       <c r="H4" t="s">
         <v>169</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>170</v>
       </c>
       <c r="J4">
@@ -1590,8 +1600,11 @@
       <c r="K4">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1616,7 +1629,7 @@
       <c r="H5" t="s">
         <v>169</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>170</v>
       </c>
       <c r="J5">
@@ -1625,8 +1638,11 @@
       <c r="K5">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1651,7 +1667,7 @@
       <c r="H6" t="s">
         <v>169</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>170</v>
       </c>
       <c r="J6">
@@ -1660,8 +1676,11 @@
       <c r="K6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1686,7 +1705,7 @@
       <c r="H7" t="s">
         <v>169</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>170</v>
       </c>
       <c r="J7">
@@ -1695,8 +1714,11 @@
       <c r="K7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1721,7 +1743,7 @@
       <c r="H8" t="s">
         <v>169</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>170</v>
       </c>
       <c r="J8">
@@ -1730,8 +1752,11 @@
       <c r="K8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1756,7 +1781,7 @@
       <c r="H9" t="s">
         <v>169</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>170</v>
       </c>
       <c r="J9">
@@ -1765,8 +1790,11 @@
       <c r="K9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1791,7 +1819,7 @@
       <c r="H10" t="s">
         <v>169</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>170</v>
       </c>
       <c r="J10">
@@ -1800,8 +1828,11 @@
       <c r="K10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1826,7 +1857,7 @@
       <c r="H11" t="s">
         <v>169</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>170</v>
       </c>
       <c r="J11">
@@ -1835,8 +1866,11 @@
       <c r="K11">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1861,7 +1895,7 @@
       <c r="H12" t="s">
         <v>169</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>170</v>
       </c>
       <c r="J12">
@@ -1870,8 +1904,11 @@
       <c r="K12">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1896,7 +1933,7 @@
       <c r="H13" t="s">
         <v>169</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>170</v>
       </c>
       <c r="J13">
@@ -1905,8 +1942,11 @@
       <c r="K13">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1931,7 +1971,7 @@
       <c r="H14" t="s">
         <v>169</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" t="s">
         <v>170</v>
       </c>
       <c r="J14">
@@ -1940,8 +1980,11 @@
       <c r="K14">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1966,7 +2009,7 @@
       <c r="H15" t="s">
         <v>169</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>170</v>
       </c>
       <c r="J15">
@@ -1975,8 +2018,11 @@
       <c r="K15">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2001,7 +2047,7 @@
       <c r="H16" t="s">
         <v>169</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
         <v>170</v>
       </c>
       <c r="J16">
@@ -2010,8 +2056,11 @@
       <c r="K16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2036,7 +2085,7 @@
       <c r="H17" t="s">
         <v>169</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" t="s">
         <v>170</v>
       </c>
       <c r="J17">
@@ -2045,8 +2094,11 @@
       <c r="K17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2071,7 +2123,7 @@
       <c r="H18" t="s">
         <v>169</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" t="s">
         <v>170</v>
       </c>
       <c r="J18">
@@ -2080,8 +2132,11 @@
       <c r="K18">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2106,7 +2161,7 @@
       <c r="H19" t="s">
         <v>169</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" t="s">
         <v>170</v>
       </c>
       <c r="J19">
@@ -2115,8 +2170,11 @@
       <c r="K19">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2141,7 +2199,7 @@
       <c r="H20" t="s">
         <v>169</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" t="s">
         <v>170</v>
       </c>
       <c r="J20">
@@ -2150,8 +2208,11 @@
       <c r="K20">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2176,7 +2237,7 @@
       <c r="H21" t="s">
         <v>169</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" t="s">
         <v>170</v>
       </c>
       <c r="J21">
@@ -2185,8 +2246,11 @@
       <c r="K21">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2211,7 +2275,7 @@
       <c r="H22" t="s">
         <v>169</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" t="s">
         <v>170</v>
       </c>
       <c r="J22">
@@ -2220,8 +2284,11 @@
       <c r="K22">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2246,7 +2313,7 @@
       <c r="H23" t="s">
         <v>169</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" t="s">
         <v>170</v>
       </c>
       <c r="J23">
@@ -2255,8 +2322,11 @@
       <c r="K23">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2281,7 +2351,7 @@
       <c r="H24" t="s">
         <v>169</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" t="s">
         <v>170</v>
       </c>
       <c r="J24">
@@ -2290,8 +2360,11 @@
       <c r="K24">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -2316,7 +2389,7 @@
       <c r="H25" t="s">
         <v>169</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" t="s">
         <v>170</v>
       </c>
       <c r="J25">
@@ -2325,8 +2398,11 @@
       <c r="K25">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -2351,7 +2427,7 @@
       <c r="H26" t="s">
         <v>169</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" t="s">
         <v>170</v>
       </c>
       <c r="J26">
@@ -2360,8 +2436,11 @@
       <c r="K26">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -2386,7 +2465,7 @@
       <c r="H27" t="s">
         <v>169</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" t="s">
         <v>170</v>
       </c>
       <c r="J27">
@@ -2395,8 +2474,11 @@
       <c r="K27">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2421,7 +2503,7 @@
       <c r="H28" t="s">
         <v>169</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" t="s">
         <v>170</v>
       </c>
       <c r="J28">
@@ -2430,8 +2512,11 @@
       <c r="K28">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -2456,7 +2541,7 @@
       <c r="H29" t="s">
         <v>169</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" t="s">
         <v>170</v>
       </c>
       <c r="J29">
@@ -2465,8 +2550,11 @@
       <c r="K29">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -2491,7 +2579,7 @@
       <c r="H30" t="s">
         <v>169</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" t="s">
         <v>170</v>
       </c>
       <c r="J30">
@@ -2500,8 +2588,11 @@
       <c r="K30">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -2526,7 +2617,7 @@
       <c r="H31" t="s">
         <v>169</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" t="s">
         <v>170</v>
       </c>
       <c r="J31">
@@ -2535,8 +2626,11 @@
       <c r="K31">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -2561,7 +2655,7 @@
       <c r="H32" t="s">
         <v>169</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" t="s">
         <v>170</v>
       </c>
       <c r="J32">
@@ -2570,8 +2664,11 @@
       <c r="K32">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -2596,7 +2693,7 @@
       <c r="H33" t="s">
         <v>169</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" t="s">
         <v>170</v>
       </c>
       <c r="J33">
@@ -2605,8 +2702,11 @@
       <c r="K33">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2631,7 +2731,7 @@
       <c r="H34" t="s">
         <v>169</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" t="s">
         <v>170</v>
       </c>
       <c r="J34">
@@ -2640,8 +2740,11 @@
       <c r="K34">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -2666,7 +2769,7 @@
       <c r="H35" t="s">
         <v>169</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" t="s">
         <v>170</v>
       </c>
       <c r="J35">
@@ -2675,8 +2778,11 @@
       <c r="K35">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -2701,7 +2807,7 @@
       <c r="H36" t="s">
         <v>169</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" t="s">
         <v>170</v>
       </c>
       <c r="J36">
@@ -2710,8 +2816,11 @@
       <c r="K36">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -2736,7 +2845,7 @@
       <c r="H37" t="s">
         <v>169</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" t="s">
         <v>170</v>
       </c>
       <c r="J37">
@@ -2745,8 +2854,11 @@
       <c r="K37">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -2771,7 +2883,7 @@
       <c r="H38" t="s">
         <v>169</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" t="s">
         <v>170</v>
       </c>
       <c r="J38">
@@ -2780,8 +2892,11 @@
       <c r="K38">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -2806,7 +2921,7 @@
       <c r="H39" t="s">
         <v>169</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" t="s">
         <v>170</v>
       </c>
       <c r="J39">
@@ -2815,8 +2930,11 @@
       <c r="K39">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -2841,7 +2959,7 @@
       <c r="H40" t="s">
         <v>169</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" t="s">
         <v>170</v>
       </c>
       <c r="J40">
@@ -2850,8 +2968,11 @@
       <c r="K40">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -2876,7 +2997,7 @@
       <c r="H41" t="s">
         <v>169</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" t="s">
         <v>170</v>
       </c>
       <c r="J41">
@@ -2885,8 +3006,11 @@
       <c r="K41">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -2911,7 +3035,7 @@
       <c r="H42" t="s">
         <v>169</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" t="s">
         <v>170</v>
       </c>
       <c r="J42">
@@ -2920,8 +3044,11 @@
       <c r="K42">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -2946,7 +3073,7 @@
       <c r="H43" t="s">
         <v>169</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" t="s">
         <v>170</v>
       </c>
       <c r="J43">
@@ -2955,8 +3082,11 @@
       <c r="K43">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -2981,7 +3111,7 @@
       <c r="H44" t="s">
         <v>169</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" t="s">
         <v>170</v>
       </c>
       <c r="J44">
@@ -2990,8 +3120,11 @@
       <c r="K44">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -3016,7 +3149,7 @@
       <c r="H45" t="s">
         <v>169</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" t="s">
         <v>170</v>
       </c>
       <c r="J45">
@@ -3025,8 +3158,11 @@
       <c r="K45">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -3051,7 +3187,7 @@
       <c r="H46" t="s">
         <v>169</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" t="s">
         <v>170</v>
       </c>
       <c r="J46">
@@ -3060,8 +3196,11 @@
       <c r="K46">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -3086,7 +3225,7 @@
       <c r="H47" t="s">
         <v>169</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" t="s">
         <v>170</v>
       </c>
       <c r="J47">
@@ -3095,8 +3234,11 @@
       <c r="K47">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -3121,7 +3263,7 @@
       <c r="H48" t="s">
         <v>169</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" t="s">
         <v>170</v>
       </c>
       <c r="J48">
@@ -3130,8 +3272,11 @@
       <c r="K48">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -3156,7 +3301,7 @@
       <c r="H49" t="s">
         <v>169</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" t="s">
         <v>170</v>
       </c>
       <c r="J49">
@@ -3165,8 +3310,11 @@
       <c r="K49">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -3191,7 +3339,7 @@
       <c r="H50" t="s">
         <v>169</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" t="s">
         <v>170</v>
       </c>
       <c r="J50">
@@ -3200,8 +3348,11 @@
       <c r="K50">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -3226,7 +3377,7 @@
       <c r="H51" t="s">
         <v>169</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" t="s">
         <v>170</v>
       </c>
       <c r="J51">
@@ -3235,8 +3386,11 @@
       <c r="K51">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -3261,7 +3415,7 @@
       <c r="H52" t="s">
         <v>169</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I52" t="s">
         <v>170</v>
       </c>
       <c r="J52">
@@ -3270,8 +3424,11 @@
       <c r="K52">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -3296,7 +3453,7 @@
       <c r="H53" t="s">
         <v>169</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I53" t="s">
         <v>170</v>
       </c>
       <c r="J53">
@@ -3305,8 +3462,11 @@
       <c r="K53">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -3331,7 +3491,7 @@
       <c r="H54" t="s">
         <v>169</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I54" t="s">
         <v>170</v>
       </c>
       <c r="J54">
@@ -3340,8 +3500,11 @@
       <c r="K54">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -3366,7 +3529,7 @@
       <c r="H55" t="s">
         <v>169</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I55" t="s">
         <v>170</v>
       </c>
       <c r="J55">
@@ -3375,8 +3538,11 @@
       <c r="K55">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -3401,7 +3567,7 @@
       <c r="H56" t="s">
         <v>169</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I56" t="s">
         <v>2</v>
       </c>
       <c r="J56">
@@ -3410,8 +3576,11 @@
       <c r="N56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -3436,7 +3605,7 @@
       <c r="H57" t="s">
         <v>169</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I57" t="s">
         <v>2</v>
       </c>
       <c r="J57">
@@ -3445,8 +3614,11 @@
       <c r="N57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -3471,7 +3643,7 @@
       <c r="H58" t="s">
         <v>169</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="I58" t="s">
         <v>2</v>
       </c>
       <c r="J58">
@@ -3480,8 +3652,11 @@
       <c r="N58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -3506,7 +3681,7 @@
       <c r="H59" t="s">
         <v>169</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="I59" t="s">
         <v>2</v>
       </c>
       <c r="J59">
@@ -3515,8 +3690,11 @@
       <c r="N59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -3541,14 +3719,17 @@
       <c r="H60" t="s">
         <v>169</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="I60" t="s">
         <v>126</v>
       </c>
       <c r="K60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -3573,14 +3754,17 @@
       <c r="H61" t="s">
         <v>169</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I61" t="s">
         <v>126</v>
       </c>
       <c r="K61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -3605,14 +3789,17 @@
       <c r="H62" t="s">
         <v>169</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="I62" t="s">
         <v>126</v>
       </c>
       <c r="K62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>21</v>
       </c>
@@ -3637,14 +3824,17 @@
       <c r="H63" t="s">
         <v>169</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="I63" t="s">
         <v>126</v>
       </c>
       <c r="K63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -3669,14 +3859,17 @@
       <c r="H64" t="s">
         <v>169</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I64" t="s">
         <v>126</v>
       </c>
       <c r="K64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -3701,14 +3894,17 @@
       <c r="H65" t="s">
         <v>169</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="I65" t="s">
         <v>126</v>
       </c>
       <c r="K65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -3733,14 +3929,17 @@
       <c r="H66" t="s">
         <v>169</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="I66" t="s">
         <v>126</v>
       </c>
       <c r="K66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -3765,14 +3964,17 @@
       <c r="H67" t="s">
         <v>169</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="I67" t="s">
         <v>126</v>
       </c>
       <c r="K67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>21</v>
       </c>
@@ -3797,14 +3999,17 @@
       <c r="H68" t="s">
         <v>169</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="I68" t="s">
         <v>126</v>
       </c>
       <c r="K68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -3829,14 +4034,17 @@
       <c r="H69" t="s">
         <v>169</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="I69" t="s">
         <v>126</v>
       </c>
       <c r="K69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -3861,14 +4069,17 @@
       <c r="H70" t="s">
         <v>169</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="I70" t="s">
         <v>126</v>
       </c>
       <c r="K70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -3893,14 +4104,17 @@
       <c r="H71" t="s">
         <v>169</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I71" t="s">
         <v>126</v>
       </c>
       <c r="K71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -3925,14 +4139,17 @@
       <c r="H72" t="s">
         <v>169</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="I72" t="s">
         <v>126</v>
       </c>
       <c r="K72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -3957,14 +4174,17 @@
       <c r="H73" t="s">
         <v>169</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="I73" t="s">
         <v>126</v>
       </c>
       <c r="K73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -3989,14 +4209,17 @@
       <c r="H74" t="s">
         <v>169</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="I74" t="s">
         <v>126</v>
       </c>
       <c r="K74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -4021,14 +4244,17 @@
       <c r="H75" t="s">
         <v>169</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="I75" t="s">
         <v>126</v>
       </c>
       <c r="K75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>21</v>
       </c>
@@ -4053,14 +4279,17 @@
       <c r="H76" t="s">
         <v>169</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="I76" t="s">
         <v>126</v>
       </c>
       <c r="K76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -4085,14 +4314,17 @@
       <c r="H77" t="s">
         <v>169</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="I77" t="s">
         <v>126</v>
       </c>
       <c r="K77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>21</v>
       </c>
@@ -4117,14 +4349,17 @@
       <c r="H78" t="s">
         <v>169</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="I78" t="s">
         <v>126</v>
       </c>
       <c r="K78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>21</v>
       </c>
@@ -4149,14 +4384,17 @@
       <c r="H79" t="s">
         <v>169</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="I79" t="s">
         <v>126</v>
       </c>
       <c r="K79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>21</v>
       </c>
@@ -4181,14 +4419,17 @@
       <c r="H80" t="s">
         <v>169</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="I80" t="s">
         <v>126</v>
       </c>
       <c r="K80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>21</v>
       </c>
@@ -4213,14 +4454,17 @@
       <c r="H81" t="s">
         <v>169</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="I81" t="s">
         <v>126</v>
       </c>
       <c r="K81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>21</v>
       </c>
@@ -4245,14 +4489,17 @@
       <c r="H82" t="s">
         <v>169</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="I82" t="s">
         <v>126</v>
       </c>
       <c r="K82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>21</v>
       </c>
@@ -4277,14 +4524,17 @@
       <c r="H83" t="s">
         <v>169</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="I83" t="s">
         <v>126</v>
       </c>
       <c r="K83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>21</v>
       </c>
@@ -4309,14 +4559,17 @@
       <c r="H84" t="s">
         <v>169</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="I84" t="s">
         <v>126</v>
       </c>
       <c r="K84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>21</v>
       </c>
@@ -4341,14 +4594,17 @@
       <c r="H85" t="s">
         <v>169</v>
       </c>
-      <c r="I85" s="1" t="s">
+      <c r="I85" t="s">
         <v>126</v>
       </c>
       <c r="K85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -4373,14 +4629,17 @@
       <c r="H86" t="s">
         <v>169</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="I86" t="s">
         <v>126</v>
       </c>
       <c r="K86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -4405,14 +4664,17 @@
       <c r="H87" t="s">
         <v>169</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="I87" t="s">
         <v>126</v>
       </c>
       <c r="K87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -4437,14 +4699,17 @@
       <c r="H88" t="s">
         <v>169</v>
       </c>
-      <c r="I88" s="1" t="s">
+      <c r="I88" t="s">
         <v>126</v>
       </c>
       <c r="K88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>21</v>
       </c>
@@ -4469,14 +4734,17 @@
       <c r="H89" t="s">
         <v>169</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="I89" t="s">
         <v>126</v>
       </c>
       <c r="K89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>21</v>
       </c>
@@ -4501,14 +4769,17 @@
       <c r="H90" t="s">
         <v>169</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="I90" t="s">
         <v>126</v>
       </c>
       <c r="K90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>21</v>
       </c>
@@ -4533,14 +4804,17 @@
       <c r="H91" t="s">
         <v>169</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="I91" t="s">
         <v>126</v>
       </c>
       <c r="K91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>21</v>
       </c>
@@ -4565,7 +4839,7 @@
       <c r="H92" t="s">
         <v>169</v>
       </c>
-      <c r="I92" s="1" t="s">
+      <c r="I92" t="s">
         <v>170</v>
       </c>
       <c r="J92">
@@ -4574,8 +4848,11 @@
       <c r="K92">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>21</v>
       </c>
@@ -4600,7 +4877,7 @@
       <c r="H93" t="s">
         <v>169</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="I93" t="s">
         <v>170</v>
       </c>
       <c r="J93">
@@ -4609,8 +4886,11 @@
       <c r="K93">
         <v>7</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>21</v>
       </c>
@@ -4635,7 +4915,7 @@
       <c r="H94" t="s">
         <v>169</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="I94" t="s">
         <v>170</v>
       </c>
       <c r="J94">
@@ -4644,8 +4924,11 @@
       <c r="K94">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>21</v>
       </c>
@@ -4670,7 +4953,7 @@
       <c r="H95" t="s">
         <v>169</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="I95" t="s">
         <v>170</v>
       </c>
       <c r="J95">
@@ -4679,8 +4962,11 @@
       <c r="K95">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>21</v>
       </c>
@@ -4705,7 +4991,7 @@
       <c r="H96" t="s">
         <v>169</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="I96" t="s">
         <v>170</v>
       </c>
       <c r="J96">
@@ -4714,8 +5000,11 @@
       <c r="K96">
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>21</v>
       </c>
@@ -4740,7 +5029,7 @@
       <c r="H97" t="s">
         <v>169</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="I97" t="s">
         <v>170</v>
       </c>
       <c r="J97">
@@ -4749,8 +5038,11 @@
       <c r="K97">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="O97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>21</v>
       </c>
@@ -4760,7 +5052,7 @@
       <c r="C98" t="s">
         <v>115</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E98" t="s">
@@ -4775,7 +5067,7 @@
       <c r="H98" t="s">
         <v>169</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="I98" t="s">
         <v>170</v>
       </c>
       <c r="J98">
@@ -4784,8 +5076,11 @@
       <c r="K98">
         <v>7</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>21</v>
       </c>
@@ -4810,7 +5105,7 @@
       <c r="H99" t="s">
         <v>169</v>
       </c>
-      <c r="I99" s="1" t="s">
+      <c r="I99" t="s">
         <v>170</v>
       </c>
       <c r="J99">
@@ -4819,8 +5114,11 @@
       <c r="K99">
         <v>7</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>21</v>
       </c>
@@ -4845,7 +5143,7 @@
       <c r="H100" t="s">
         <v>169</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="I100" t="s">
         <v>170</v>
       </c>
       <c r="J100">
@@ -4854,8 +5152,11 @@
       <c r="K100">
         <v>7</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>21</v>
       </c>
@@ -4880,7 +5181,7 @@
       <c r="H101" t="s">
         <v>169</v>
       </c>
-      <c r="I101" s="1" t="s">
+      <c r="I101" t="s">
         <v>170</v>
       </c>
       <c r="J101">
@@ -4889,8 +5190,11 @@
       <c r="K101">
         <v>7</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>21</v>
       </c>
@@ -4915,7 +5219,7 @@
       <c r="H102" t="s">
         <v>169</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="I102" t="s">
         <v>170</v>
       </c>
       <c r="J102">
@@ -4924,8 +5228,11 @@
       <c r="K102">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>21</v>
       </c>
@@ -4950,7 +5257,7 @@
       <c r="H103" t="s">
         <v>169</v>
       </c>
-      <c r="I103" s="1" t="s">
+      <c r="I103" t="s">
         <v>170</v>
       </c>
       <c r="J103">
@@ -4959,8 +5266,11 @@
       <c r="K103">
         <v>7</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>21</v>
       </c>
@@ -4985,7 +5295,7 @@
       <c r="H104" t="s">
         <v>169</v>
       </c>
-      <c r="I104" s="1" t="s">
+      <c r="I104" t="s">
         <v>170</v>
       </c>
       <c r="J104">
@@ -4994,8 +5304,11 @@
       <c r="K104">
         <v>7</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>21</v>
       </c>
@@ -5020,7 +5333,7 @@
       <c r="H105" t="s">
         <v>169</v>
       </c>
-      <c r="I105" s="1" t="s">
+      <c r="I105" t="s">
         <v>170</v>
       </c>
       <c r="J105">
@@ -5029,8 +5342,11 @@
       <c r="K105">
         <v>7</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>21</v>
       </c>
@@ -5055,7 +5371,7 @@
       <c r="H106" t="s">
         <v>169</v>
       </c>
-      <c r="I106" s="1" t="s">
+      <c r="I106" t="s">
         <v>170</v>
       </c>
       <c r="J106">
@@ -5064,8 +5380,11 @@
       <c r="K106">
         <v>7</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -5090,7 +5409,7 @@
       <c r="H107" t="s">
         <v>169</v>
       </c>
-      <c r="I107" s="1" t="s">
+      <c r="I107" t="s">
         <v>170</v>
       </c>
       <c r="J107">
@@ -5099,8 +5418,11 @@
       <c r="K107">
         <v>7</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>21</v>
       </c>
@@ -5125,7 +5447,7 @@
       <c r="H108" t="s">
         <v>169</v>
       </c>
-      <c r="I108" s="1" t="s">
+      <c r="I108" t="s">
         <v>170</v>
       </c>
       <c r="J108">
@@ -5134,9 +5456,11 @@
       <c r="K108">
         <v>7</v>
       </c>
-      <c r="M108" s="1"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>21</v>
       </c>
@@ -5161,7 +5485,7 @@
       <c r="H109" t="s">
         <v>169</v>
       </c>
-      <c r="I109" s="1" t="s">
+      <c r="I109" t="s">
         <v>170</v>
       </c>
       <c r="J109">
@@ -5170,8 +5494,11 @@
       <c r="K109">
         <v>7</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>21</v>
       </c>
@@ -5196,7 +5523,7 @@
       <c r="H110" t="s">
         <v>169</v>
       </c>
-      <c r="I110" s="1" t="s">
+      <c r="I110" t="s">
         <v>170</v>
       </c>
       <c r="J110">
@@ -5205,8 +5532,11 @@
       <c r="K110">
         <v>7</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>21</v>
       </c>
@@ -5231,7 +5561,7 @@
       <c r="H111" t="s">
         <v>169</v>
       </c>
-      <c r="I111" s="1" t="s">
+      <c r="I111" t="s">
         <v>170</v>
       </c>
       <c r="J111">
@@ -5240,8 +5570,11 @@
       <c r="K111">
         <v>7</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>21</v>
       </c>
@@ -5266,7 +5599,7 @@
       <c r="H112" t="s">
         <v>169</v>
       </c>
-      <c r="I112" s="1" t="s">
+      <c r="I112" t="s">
         <v>170</v>
       </c>
       <c r="J112">
@@ -5275,8 +5608,11 @@
       <c r="K112">
         <v>7</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>21</v>
       </c>
@@ -5301,7 +5637,7 @@
       <c r="H113" t="s">
         <v>169</v>
       </c>
-      <c r="I113" s="1" t="s">
+      <c r="I113" t="s">
         <v>170</v>
       </c>
       <c r="J113">
@@ -5310,8 +5646,11 @@
       <c r="K113">
         <v>7</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>21</v>
       </c>
@@ -5336,7 +5675,7 @@
       <c r="H114" t="s">
         <v>169</v>
       </c>
-      <c r="I114" s="1" t="s">
+      <c r="I114" t="s">
         <v>170</v>
       </c>
       <c r="J114">
@@ -5345,8 +5684,11 @@
       <c r="K114">
         <v>7</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>21</v>
       </c>
@@ -5371,7 +5713,7 @@
       <c r="H115" t="s">
         <v>169</v>
       </c>
-      <c r="I115" s="1" t="s">
+      <c r="I115" t="s">
         <v>170</v>
       </c>
       <c r="J115">
@@ -5380,8 +5722,11 @@
       <c r="K115">
         <v>7</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>21</v>
       </c>
@@ -5406,7 +5751,7 @@
       <c r="H116" t="s">
         <v>169</v>
       </c>
-      <c r="I116" s="1" t="s">
+      <c r="I116" t="s">
         <v>170</v>
       </c>
       <c r="J116">
@@ -5415,8 +5760,11 @@
       <c r="K116">
         <v>7</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>21</v>
       </c>
@@ -5441,7 +5789,7 @@
       <c r="H117" t="s">
         <v>169</v>
       </c>
-      <c r="I117" s="1" t="s">
+      <c r="I117" t="s">
         <v>170</v>
       </c>
       <c r="J117">
@@ -5450,8 +5798,11 @@
       <c r="K117">
         <v>7</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>21</v>
       </c>
@@ -5476,7 +5827,7 @@
       <c r="H118" t="s">
         <v>169</v>
       </c>
-      <c r="I118" s="1" t="s">
+      <c r="I118" t="s">
         <v>170</v>
       </c>
       <c r="J118">
@@ -5485,8 +5836,11 @@
       <c r="K118">
         <v>7</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>21</v>
       </c>
@@ -5511,7 +5865,7 @@
       <c r="H119" t="s">
         <v>169</v>
       </c>
-      <c r="I119" s="1" t="s">
+      <c r="I119" t="s">
         <v>170</v>
       </c>
       <c r="J119">
@@ -5520,8 +5874,11 @@
       <c r="K119">
         <v>7</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>21</v>
       </c>
@@ -5546,7 +5903,7 @@
       <c r="H120" t="s">
         <v>169</v>
       </c>
-      <c r="I120" s="1" t="s">
+      <c r="I120" t="s">
         <v>170</v>
       </c>
       <c r="J120">
@@ -5555,8 +5912,11 @@
       <c r="K120">
         <v>7</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>21</v>
       </c>
@@ -5581,7 +5941,7 @@
       <c r="H121" t="s">
         <v>169</v>
       </c>
-      <c r="I121" s="1" t="s">
+      <c r="I121" t="s">
         <v>170</v>
       </c>
       <c r="J121">
@@ -5590,8 +5950,11 @@
       <c r="K121">
         <v>7</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>21</v>
       </c>
@@ -5616,7 +5979,7 @@
       <c r="H122" t="s">
         <v>169</v>
       </c>
-      <c r="I122" s="1" t="s">
+      <c r="I122" t="s">
         <v>170</v>
       </c>
       <c r="J122">
@@ -5625,8 +5988,11 @@
       <c r="K122">
         <v>7</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>21</v>
       </c>
@@ -5651,7 +6017,7 @@
       <c r="H123" t="s">
         <v>169</v>
       </c>
-      <c r="I123" s="1" t="s">
+      <c r="I123" t="s">
         <v>170</v>
       </c>
       <c r="J123">
@@ -5660,8 +6026,11 @@
       <c r="K123">
         <v>7</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>21</v>
       </c>
@@ -5686,7 +6055,7 @@
       <c r="H124" t="s">
         <v>169</v>
       </c>
-      <c r="I124" s="1" t="s">
+      <c r="I124" t="s">
         <v>170</v>
       </c>
       <c r="J124">
@@ -5695,8 +6064,11 @@
       <c r="K124">
         <v>7</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>21</v>
       </c>
@@ -5721,7 +6093,7 @@
       <c r="H125" t="s">
         <v>169</v>
       </c>
-      <c r="I125" s="1" t="s">
+      <c r="I125" t="s">
         <v>170</v>
       </c>
       <c r="J125">
@@ -5730,8 +6102,11 @@
       <c r="K125">
         <v>7</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>21</v>
       </c>
@@ -5756,7 +6131,7 @@
       <c r="H126" t="s">
         <v>169</v>
       </c>
-      <c r="I126" s="1" t="s">
+      <c r="I126" t="s">
         <v>170</v>
       </c>
       <c r="J126">
@@ -5765,8 +6140,11 @@
       <c r="K126">
         <v>7</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>21</v>
       </c>
@@ -5791,7 +6169,7 @@
       <c r="H127" t="s">
         <v>87</v>
       </c>
-      <c r="I127" s="1" t="s">
+      <c r="I127" t="s">
         <v>170</v>
       </c>
       <c r="J127">
@@ -5800,8 +6178,11 @@
       <c r="K127">
         <v>7</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="O127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>21</v>
       </c>
@@ -5811,7 +6192,7 @@
       <c r="C128" t="s">
         <v>115</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E128" t="s">
@@ -5826,7 +6207,7 @@
       <c r="H128" t="s">
         <v>87</v>
       </c>
-      <c r="I128" s="1" t="s">
+      <c r="I128" t="s">
         <v>170</v>
       </c>
       <c r="J128">
@@ -5835,8 +6216,11 @@
       <c r="K128">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>21</v>
       </c>
@@ -5861,7 +6245,7 @@
       <c r="H129" t="s">
         <v>87</v>
       </c>
-      <c r="I129" s="1" t="s">
+      <c r="I129" t="s">
         <v>170</v>
       </c>
       <c r="J129">
@@ -5870,8 +6254,11 @@
       <c r="K129">
         <v>7</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>21</v>
       </c>
@@ -5896,7 +6283,7 @@
       <c r="H130" t="s">
         <v>87</v>
       </c>
-      <c r="I130" s="1" t="s">
+      <c r="I130" t="s">
         <v>170</v>
       </c>
       <c r="J130">
@@ -5905,8 +6292,11 @@
       <c r="K130">
         <v>7</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>21</v>
       </c>
@@ -5931,7 +6321,7 @@
       <c r="H131" t="s">
         <v>87</v>
       </c>
-      <c r="I131" s="1" t="s">
+      <c r="I131" t="s">
         <v>170</v>
       </c>
       <c r="J131">
@@ -5940,8 +6330,11 @@
       <c r="K131">
         <v>7</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>21</v>
       </c>
@@ -5966,7 +6359,7 @@
       <c r="H132" t="s">
         <v>87</v>
       </c>
-      <c r="I132" s="1" t="s">
+      <c r="I132" t="s">
         <v>170</v>
       </c>
       <c r="J132">
@@ -5975,8 +6368,11 @@
       <c r="K132">
         <v>7</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>21</v>
       </c>
@@ -6001,7 +6397,7 @@
       <c r="H133" t="s">
         <v>87</v>
       </c>
-      <c r="I133" s="1" t="s">
+      <c r="I133" t="s">
         <v>170</v>
       </c>
       <c r="J133">
@@ -6010,8 +6406,11 @@
       <c r="K133">
         <v>7</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>21</v>
       </c>
@@ -6036,7 +6435,7 @@
       <c r="H134" t="s">
         <v>87</v>
       </c>
-      <c r="I134" s="1" t="s">
+      <c r="I134" t="s">
         <v>170</v>
       </c>
       <c r="J134">
@@ -6045,8 +6444,11 @@
       <c r="K134">
         <v>7</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>21</v>
       </c>
@@ -6071,7 +6473,7 @@
       <c r="H135" t="s">
         <v>87</v>
       </c>
-      <c r="I135" s="1" t="s">
+      <c r="I135" t="s">
         <v>170</v>
       </c>
       <c r="J135">
@@ -6080,8 +6482,11 @@
       <c r="K135">
         <v>7</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>21</v>
       </c>
@@ -6106,7 +6511,7 @@
       <c r="H136" t="s">
         <v>87</v>
       </c>
-      <c r="I136" s="1" t="s">
+      <c r="I136" t="s">
         <v>170</v>
       </c>
       <c r="J136">
@@ -6115,8 +6520,11 @@
       <c r="K136">
         <v>7</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>21</v>
       </c>
@@ -6141,7 +6549,7 @@
       <c r="H137" t="s">
         <v>87</v>
       </c>
-      <c r="I137" s="1" t="s">
+      <c r="I137" t="s">
         <v>170</v>
       </c>
       <c r="J137">
@@ -6150,8 +6558,11 @@
       <c r="K137">
         <v>7</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>21</v>
       </c>
@@ -6176,7 +6587,7 @@
       <c r="H138" t="s">
         <v>87</v>
       </c>
-      <c r="I138" s="1" t="s">
+      <c r="I138" t="s">
         <v>170</v>
       </c>
       <c r="J138">
@@ -6185,8 +6596,11 @@
       <c r="K138">
         <v>7</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>21</v>
       </c>
@@ -6211,7 +6625,7 @@
       <c r="H139" t="s">
         <v>87</v>
       </c>
-      <c r="I139" s="1" t="s">
+      <c r="I139" t="s">
         <v>170</v>
       </c>
       <c r="J139">
@@ -6220,8 +6634,11 @@
       <c r="K139">
         <v>7</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>21</v>
       </c>
@@ -6246,7 +6663,7 @@
       <c r="H140" t="s">
         <v>87</v>
       </c>
-      <c r="I140" s="1" t="s">
+      <c r="I140" t="s">
         <v>170</v>
       </c>
       <c r="J140">
@@ -6255,8 +6672,11 @@
       <c r="K140">
         <v>7</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>21</v>
       </c>
@@ -6281,7 +6701,7 @@
       <c r="H141" t="s">
         <v>87</v>
       </c>
-      <c r="I141" s="1" t="s">
+      <c r="I141" t="s">
         <v>170</v>
       </c>
       <c r="J141">
@@ -6290,8 +6710,11 @@
       <c r="K141">
         <v>7</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>21</v>
       </c>
@@ -6316,7 +6739,7 @@
       <c r="H142" t="s">
         <v>87</v>
       </c>
-      <c r="I142" s="1" t="s">
+      <c r="I142" t="s">
         <v>170</v>
       </c>
       <c r="J142">
@@ -6325,8 +6748,11 @@
       <c r="K142">
         <v>7</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>21</v>
       </c>
@@ -6351,7 +6777,7 @@
       <c r="H143" t="s">
         <v>87</v>
       </c>
-      <c r="I143" s="1" t="s">
+      <c r="I143" t="s">
         <v>170</v>
       </c>
       <c r="J143">
@@ -6360,8 +6786,11 @@
       <c r="K143">
         <v>7</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>21</v>
       </c>
@@ -6386,7 +6815,7 @@
       <c r="H144" t="s">
         <v>87</v>
       </c>
-      <c r="I144" s="1" t="s">
+      <c r="I144" t="s">
         <v>170</v>
       </c>
       <c r="J144">
@@ -6395,8 +6824,11 @@
       <c r="K144">
         <v>7</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>21</v>
       </c>
@@ -6421,7 +6853,7 @@
       <c r="H145" t="s">
         <v>87</v>
       </c>
-      <c r="I145" s="1" t="s">
+      <c r="I145" t="s">
         <v>170</v>
       </c>
       <c r="J145">
@@ -6430,8 +6862,11 @@
       <c r="K145">
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>21</v>
       </c>
@@ -6456,7 +6891,7 @@
       <c r="H146" t="s">
         <v>87</v>
       </c>
-      <c r="I146" s="1" t="s">
+      <c r="I146" t="s">
         <v>170</v>
       </c>
       <c r="J146">
@@ -6465,8 +6900,11 @@
       <c r="K146">
         <v>7</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>21</v>
       </c>
@@ -6491,7 +6929,7 @@
       <c r="H147" t="s">
         <v>87</v>
       </c>
-      <c r="I147" s="1" t="s">
+      <c r="I147" t="s">
         <v>170</v>
       </c>
       <c r="J147">
@@ -6500,8 +6938,11 @@
       <c r="K147">
         <v>7</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>21</v>
       </c>
@@ -6526,7 +6967,7 @@
       <c r="H148" t="s">
         <v>87</v>
       </c>
-      <c r="I148" s="1" t="s">
+      <c r="I148" t="s">
         <v>170</v>
       </c>
       <c r="J148">
@@ -6535,8 +6976,11 @@
       <c r="K148">
         <v>7</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>21</v>
       </c>
@@ -6561,7 +7005,7 @@
       <c r="H149" t="s">
         <v>87</v>
       </c>
-      <c r="I149" s="1" t="s">
+      <c r="I149" t="s">
         <v>170</v>
       </c>
       <c r="J149">
@@ -6570,8 +7014,11 @@
       <c r="K149">
         <v>7</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>21</v>
       </c>
@@ -6596,7 +7043,7 @@
       <c r="H150" t="s">
         <v>87</v>
       </c>
-      <c r="I150" s="1" t="s">
+      <c r="I150" t="s">
         <v>170</v>
       </c>
       <c r="J150">
@@ -6605,8 +7052,11 @@
       <c r="K150">
         <v>7</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>21</v>
       </c>
@@ -6631,7 +7081,7 @@
       <c r="H151" t="s">
         <v>87</v>
       </c>
-      <c r="I151" s="1" t="s">
+      <c r="I151" t="s">
         <v>170</v>
       </c>
       <c r="J151">
@@ -6640,8 +7090,11 @@
       <c r="K151">
         <v>7</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>21</v>
       </c>
@@ -6666,7 +7119,7 @@
       <c r="H152" t="s">
         <v>87</v>
       </c>
-      <c r="I152" s="1" t="s">
+      <c r="I152" t="s">
         <v>170</v>
       </c>
       <c r="J152">
@@ -6675,8 +7128,11 @@
       <c r="K152">
         <v>7</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>21</v>
       </c>
@@ -6701,7 +7157,7 @@
       <c r="H153" t="s">
         <v>87</v>
       </c>
-      <c r="I153" s="1" t="s">
+      <c r="I153" t="s">
         <v>170</v>
       </c>
       <c r="J153">
@@ -6710,8 +7166,11 @@
       <c r="K153">
         <v>7</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>21</v>
       </c>
@@ -6736,7 +7195,7 @@
       <c r="H154" t="s">
         <v>87</v>
       </c>
-      <c r="I154" s="1" t="s">
+      <c r="I154" t="s">
         <v>170</v>
       </c>
       <c r="J154">
@@ -6745,8 +7204,11 @@
       <c r="K154">
         <v>7</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>21</v>
       </c>
@@ -6771,7 +7233,7 @@
       <c r="H155" t="s">
         <v>87</v>
       </c>
-      <c r="I155" s="1" t="s">
+      <c r="I155" t="s">
         <v>170</v>
       </c>
       <c r="J155">
@@ -6780,8 +7242,11 @@
       <c r="K155">
         <v>7</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>21</v>
       </c>
@@ -6806,7 +7271,7 @@
       <c r="H156" t="s">
         <v>87</v>
       </c>
-      <c r="I156" s="1" t="s">
+      <c r="I156" t="s">
         <v>170</v>
       </c>
       <c r="J156">
@@ -6815,8 +7280,11 @@
       <c r="K156">
         <v>7</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>21</v>
       </c>
@@ -6841,7 +7309,7 @@
       <c r="H157" t="s">
         <v>87</v>
       </c>
-      <c r="I157" s="1" t="s">
+      <c r="I157" t="s">
         <v>170</v>
       </c>
       <c r="J157">
@@ -6850,8 +7318,11 @@
       <c r="K157">
         <v>7</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="O157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>21</v>
       </c>
@@ -6861,7 +7332,7 @@
       <c r="C158" t="s">
         <v>115</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D158" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E158" t="s">
@@ -6876,7 +7347,7 @@
       <c r="H158" t="s">
         <v>87</v>
       </c>
-      <c r="I158" s="1" t="s">
+      <c r="I158" t="s">
         <v>170</v>
       </c>
       <c r="J158">
@@ -6885,8 +7356,11 @@
       <c r="K158">
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>21</v>
       </c>
@@ -6911,7 +7385,7 @@
       <c r="H159" t="s">
         <v>87</v>
       </c>
-      <c r="I159" s="1" t="s">
+      <c r="I159" t="s">
         <v>170</v>
       </c>
       <c r="J159">
@@ -6920,8 +7394,11 @@
       <c r="K159">
         <v>7</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>21</v>
       </c>
@@ -6946,7 +7423,7 @@
       <c r="H160" t="s">
         <v>87</v>
       </c>
-      <c r="I160" s="1" t="s">
+      <c r="I160" t="s">
         <v>170</v>
       </c>
       <c r="J160">
@@ -6955,8 +7432,11 @@
       <c r="K160">
         <v>7</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>21</v>
       </c>
@@ -6981,7 +7461,7 @@
       <c r="H161" t="s">
         <v>87</v>
       </c>
-      <c r="I161" s="1" t="s">
+      <c r="I161" t="s">
         <v>170</v>
       </c>
       <c r="J161">
@@ -6990,8 +7470,11 @@
       <c r="K161">
         <v>7</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>21</v>
       </c>
@@ -7016,7 +7499,7 @@
       <c r="H162" t="s">
         <v>87</v>
       </c>
-      <c r="I162" s="1" t="s">
+      <c r="I162" t="s">
         <v>170</v>
       </c>
       <c r="J162">
@@ -7025,8 +7508,11 @@
       <c r="K162">
         <v>7</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>21</v>
       </c>
@@ -7051,7 +7537,7 @@
       <c r="H163" t="s">
         <v>87</v>
       </c>
-      <c r="I163" s="1" t="s">
+      <c r="I163" t="s">
         <v>170</v>
       </c>
       <c r="J163">
@@ -7060,8 +7546,11 @@
       <c r="K163">
         <v>7</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>21</v>
       </c>
@@ -7086,7 +7575,7 @@
       <c r="H164" t="s">
         <v>87</v>
       </c>
-      <c r="I164" s="1" t="s">
+      <c r="I164" t="s">
         <v>170</v>
       </c>
       <c r="J164">
@@ -7095,8 +7584,11 @@
       <c r="K164">
         <v>7</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>21</v>
       </c>
@@ -7121,7 +7613,7 @@
       <c r="H165" t="s">
         <v>87</v>
       </c>
-      <c r="I165" s="1" t="s">
+      <c r="I165" t="s">
         <v>170</v>
       </c>
       <c r="J165">
@@ -7130,8 +7622,11 @@
       <c r="K165">
         <v>7</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -7156,7 +7651,7 @@
       <c r="H166" t="s">
         <v>87</v>
       </c>
-      <c r="I166" s="1" t="s">
+      <c r="I166" t="s">
         <v>170</v>
       </c>
       <c r="J166">
@@ -7165,8 +7660,11 @@
       <c r="K166">
         <v>7</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>21</v>
       </c>
@@ -7191,7 +7689,7 @@
       <c r="H167" t="s">
         <v>87</v>
       </c>
-      <c r="I167" s="1" t="s">
+      <c r="I167" t="s">
         <v>170</v>
       </c>
       <c r="J167">
@@ -7200,8 +7698,11 @@
       <c r="K167">
         <v>7</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>21</v>
       </c>
@@ -7226,7 +7727,7 @@
       <c r="H168" t="s">
         <v>87</v>
       </c>
-      <c r="I168" s="1" t="s">
+      <c r="I168" t="s">
         <v>170</v>
       </c>
       <c r="J168">
@@ -7235,8 +7736,11 @@
       <c r="K168">
         <v>7</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>21</v>
       </c>
@@ -7261,7 +7765,7 @@
       <c r="H169" t="s">
         <v>87</v>
       </c>
-      <c r="I169" s="1" t="s">
+      <c r="I169" t="s">
         <v>170</v>
       </c>
       <c r="J169">
@@ -7270,8 +7774,11 @@
       <c r="K169">
         <v>7</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>21</v>
       </c>
@@ -7296,7 +7803,7 @@
       <c r="H170" t="s">
         <v>87</v>
       </c>
-      <c r="I170" s="1" t="s">
+      <c r="I170" t="s">
         <v>170</v>
       </c>
       <c r="J170">
@@ -7305,8 +7812,11 @@
       <c r="K170">
         <v>7</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>21</v>
       </c>
@@ -7331,7 +7841,7 @@
       <c r="H171" t="s">
         <v>87</v>
       </c>
-      <c r="I171" s="1" t="s">
+      <c r="I171" t="s">
         <v>170</v>
       </c>
       <c r="J171">
@@ -7340,8 +7850,11 @@
       <c r="K171">
         <v>7</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>21</v>
       </c>
@@ -7366,7 +7879,7 @@
       <c r="H172" t="s">
         <v>87</v>
       </c>
-      <c r="I172" s="1" t="s">
+      <c r="I172" t="s">
         <v>170</v>
       </c>
       <c r="J172">
@@ -7375,8 +7888,11 @@
       <c r="K172">
         <v>7</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>21</v>
       </c>
@@ -7401,7 +7917,7 @@
       <c r="H173" t="s">
         <v>87</v>
       </c>
-      <c r="I173" s="1" t="s">
+      <c r="I173" t="s">
         <v>170</v>
       </c>
       <c r="J173">
@@ -7410,8 +7926,11 @@
       <c r="K173">
         <v>7</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>21</v>
       </c>
@@ -7436,7 +7955,7 @@
       <c r="H174" t="s">
         <v>87</v>
       </c>
-      <c r="I174" s="1" t="s">
+      <c r="I174" t="s">
         <v>170</v>
       </c>
       <c r="J174">
@@ -7445,8 +7964,11 @@
       <c r="K174">
         <v>7</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>21</v>
       </c>
@@ -7471,7 +7993,7 @@
       <c r="H175" t="s">
         <v>87</v>
       </c>
-      <c r="I175" s="1" t="s">
+      <c r="I175" t="s">
         <v>170</v>
       </c>
       <c r="J175">
@@ -7480,8 +8002,11 @@
       <c r="K175">
         <v>7</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>21</v>
       </c>
@@ -7506,7 +8031,7 @@
       <c r="H176" t="s">
         <v>87</v>
       </c>
-      <c r="I176" s="1" t="s">
+      <c r="I176" t="s">
         <v>170</v>
       </c>
       <c r="J176">
@@ -7515,8 +8040,11 @@
       <c r="K176">
         <v>7</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>21</v>
       </c>
@@ -7541,7 +8069,7 @@
       <c r="H177" t="s">
         <v>87</v>
       </c>
-      <c r="I177" s="1" t="s">
+      <c r="I177" t="s">
         <v>170</v>
       </c>
       <c r="J177">
@@ -7550,8 +8078,11 @@
       <c r="K177">
         <v>7</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>21</v>
       </c>
@@ -7576,7 +8107,7 @@
       <c r="H178" t="s">
         <v>87</v>
       </c>
-      <c r="I178" s="1" t="s">
+      <c r="I178" t="s">
         <v>170</v>
       </c>
       <c r="J178">
@@ -7585,8 +8116,11 @@
       <c r="K178">
         <v>7</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>21</v>
       </c>
@@ -7611,7 +8145,7 @@
       <c r="H179" t="s">
         <v>87</v>
       </c>
-      <c r="I179" s="1" t="s">
+      <c r="I179" t="s">
         <v>170</v>
       </c>
       <c r="J179">
@@ -7620,8 +8154,11 @@
       <c r="K179">
         <v>7</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>21</v>
       </c>
@@ -7646,7 +8183,7 @@
       <c r="H180" t="s">
         <v>87</v>
       </c>
-      <c r="I180" s="1" t="s">
+      <c r="I180" t="s">
         <v>170</v>
       </c>
       <c r="J180">
@@ -7655,8 +8192,11 @@
       <c r="K180">
         <v>7</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>21</v>
       </c>
@@ -7681,7 +8221,7 @@
       <c r="H181" t="s">
         <v>87</v>
       </c>
-      <c r="I181" s="1" t="s">
+      <c r="I181" t="s">
         <v>170</v>
       </c>
       <c r="J181">
@@ -7690,8 +8230,11 @@
       <c r="K181">
         <v>7</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>21</v>
       </c>
@@ -7716,7 +8259,7 @@
       <c r="H182" t="s">
         <v>87</v>
       </c>
-      <c r="I182" s="1" t="s">
+      <c r="I182" t="s">
         <v>170</v>
       </c>
       <c r="J182">
@@ -7725,8 +8268,11 @@
       <c r="K182">
         <v>7</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>21</v>
       </c>
@@ -7751,7 +8297,7 @@
       <c r="H183" t="s">
         <v>87</v>
       </c>
-      <c r="I183" s="1" t="s">
+      <c r="I183" t="s">
         <v>170</v>
       </c>
       <c r="J183">
@@ -7760,8 +8306,11 @@
       <c r="K183">
         <v>7</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>21</v>
       </c>
@@ -7786,7 +8335,7 @@
       <c r="H184" t="s">
         <v>87</v>
       </c>
-      <c r="I184" s="1" t="s">
+      <c r="I184" t="s">
         <v>170</v>
       </c>
       <c r="J184">
@@ -7795,8 +8344,11 @@
       <c r="K184">
         <v>7</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>21</v>
       </c>
@@ -7821,7 +8373,7 @@
       <c r="H185" t="s">
         <v>87</v>
       </c>
-      <c r="I185" s="1" t="s">
+      <c r="I185" t="s">
         <v>170</v>
       </c>
       <c r="J185">
@@ -7830,8 +8382,11 @@
       <c r="K185">
         <v>7</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>21</v>
       </c>
@@ -7856,7 +8411,7 @@
       <c r="H186" t="s">
         <v>87</v>
       </c>
-      <c r="I186" s="1" t="s">
+      <c r="I186" t="s">
         <v>170</v>
       </c>
       <c r="J186">
@@ -7865,8 +8420,11 @@
       <c r="K186">
         <v>7</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>21</v>
       </c>
@@ -7897,9 +8455,11 @@
       <c r="J187">
         <v>11</v>
       </c>
-      <c r="M187" s="1"/>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>21</v>
       </c>
@@ -7930,9 +8490,11 @@
       <c r="J188">
         <v>11</v>
       </c>
-      <c r="M188" s="1"/>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>21</v>
       </c>
@@ -7963,9 +8525,11 @@
       <c r="J189">
         <v>11</v>
       </c>
-      <c r="M189" s="1"/>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -7996,9 +8560,11 @@
       <c r="J190">
         <v>11</v>
       </c>
-      <c r="M190" s="1"/>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>21</v>
       </c>
@@ -8029,8 +8595,11 @@
       <c r="J191">
         <v>11</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>21</v>
       </c>
@@ -8061,9 +8630,11 @@
       <c r="J192">
         <v>11</v>
       </c>
-      <c r="M192" s="1"/>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>21</v>
       </c>
@@ -8094,9 +8665,11 @@
       <c r="J193">
         <v>11</v>
       </c>
-      <c r="M193" s="1"/>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>21</v>
       </c>
@@ -8133,11 +8706,14 @@
       <c r="M194" t="s">
         <v>155</v>
       </c>
-      <c r="O194" t="s">
+      <c r="O194">
+        <v>1</v>
+      </c>
+      <c r="P194" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>21</v>
       </c>
@@ -8174,11 +8750,14 @@
       <c r="M195" t="s">
         <v>155</v>
       </c>
-      <c r="O195" t="s">
+      <c r="O195">
+        <v>1</v>
+      </c>
+      <c r="P195" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>21</v>
       </c>
@@ -8215,8 +8794,11 @@
       <c r="M196" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="197" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="O196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>21</v>
       </c>
@@ -8226,7 +8808,7 @@
       <c r="C197" t="s">
         <v>54</v>
       </c>
-      <c r="D197" s="2" t="s">
+      <c r="D197" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E197" t="s">
@@ -8247,9 +8829,11 @@
       <c r="J197">
         <v>11</v>
       </c>
-      <c r="M197" s="1"/>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>21</v>
       </c>
@@ -8280,9 +8864,11 @@
       <c r="J198">
         <v>11</v>
       </c>
-      <c r="M198" s="1"/>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>21</v>
       </c>
@@ -8307,14 +8893,17 @@
       <c r="H199" t="s">
         <v>123</v>
       </c>
-      <c r="I199" s="1" t="s">
+      <c r="I199" t="s">
         <v>126</v>
       </c>
       <c r="K199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>21</v>
       </c>
@@ -8339,14 +8928,17 @@
       <c r="H200" t="s">
         <v>123</v>
       </c>
-      <c r="I200" s="1" t="s">
+      <c r="I200" t="s">
         <v>126</v>
       </c>
       <c r="K200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>21</v>
       </c>
@@ -8371,14 +8963,17 @@
       <c r="H201" t="s">
         <v>123</v>
       </c>
-      <c r="I201" s="1" t="s">
+      <c r="I201" t="s">
         <v>126</v>
       </c>
       <c r="K201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>21</v>
       </c>
@@ -8403,14 +8998,17 @@
       <c r="H202" t="s">
         <v>123</v>
       </c>
-      <c r="I202" s="1" t="s">
+      <c r="I202" t="s">
         <v>126</v>
       </c>
       <c r="K202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>21</v>
       </c>
@@ -8435,14 +9033,17 @@
       <c r="H203" t="s">
         <v>123</v>
       </c>
-      <c r="I203" s="1" t="s">
+      <c r="I203" t="s">
         <v>126</v>
       </c>
       <c r="K203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>21</v>
       </c>
@@ -8467,14 +9068,17 @@
       <c r="H204" t="s">
         <v>123</v>
       </c>
-      <c r="I204" s="1" t="s">
+      <c r="I204" t="s">
         <v>126</v>
       </c>
       <c r="K204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>21</v>
       </c>
@@ -8499,14 +9103,17 @@
       <c r="H205" t="s">
         <v>123</v>
       </c>
-      <c r="I205" s="1" t="s">
+      <c r="I205" t="s">
         <v>126</v>
       </c>
       <c r="K205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>21</v>
       </c>
@@ -8531,14 +9138,17 @@
       <c r="H206" t="s">
         <v>123</v>
       </c>
-      <c r="I206" s="1" t="s">
+      <c r="I206" t="s">
         <v>126</v>
       </c>
       <c r="K206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>21</v>
       </c>
@@ -8563,7 +9173,7 @@
       <c r="H207" t="s">
         <v>123</v>
       </c>
-      <c r="I207" s="1" t="s">
+      <c r="I207" t="s">
         <v>170</v>
       </c>
       <c r="J207">
@@ -8572,8 +9182,11 @@
       <c r="K207">
         <v>7</v>
       </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>21</v>
       </c>
@@ -8598,7 +9211,7 @@
       <c r="H208" t="s">
         <v>123</v>
       </c>
-      <c r="I208" s="1" t="s">
+      <c r="I208" t="s">
         <v>170</v>
       </c>
       <c r="J208">
@@ -8607,8 +9220,11 @@
       <c r="K208">
         <v>7</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>21</v>
       </c>
@@ -8633,7 +9249,7 @@
       <c r="H209" t="s">
         <v>123</v>
       </c>
-      <c r="I209" s="1" t="s">
+      <c r="I209" t="s">
         <v>170</v>
       </c>
       <c r="J209">
@@ -8642,8 +9258,11 @@
       <c r="K209">
         <v>7</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>21</v>
       </c>
@@ -8668,7 +9287,7 @@
       <c r="H210" t="s">
         <v>123</v>
       </c>
-      <c r="I210" s="1" t="s">
+      <c r="I210" t="s">
         <v>170</v>
       </c>
       <c r="J210">
@@ -8677,8 +9296,11 @@
       <c r="K210">
         <v>7</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>21</v>
       </c>
@@ -8703,7 +9325,7 @@
       <c r="H211" t="s">
         <v>123</v>
       </c>
-      <c r="I211" s="1" t="s">
+      <c r="I211" t="s">
         <v>170</v>
       </c>
       <c r="J211">
@@ -8712,8 +9334,11 @@
       <c r="K211">
         <v>7</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>21</v>
       </c>
@@ -8738,7 +9363,7 @@
       <c r="H212" t="s">
         <v>123</v>
       </c>
-      <c r="I212" s="1" t="s">
+      <c r="I212" t="s">
         <v>170</v>
       </c>
       <c r="J212">
@@ -8747,8 +9372,11 @@
       <c r="K212">
         <v>7</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>21</v>
       </c>
@@ -8773,7 +9401,7 @@
       <c r="H213" t="s">
         <v>123</v>
       </c>
-      <c r="I213" s="1" t="s">
+      <c r="I213" t="s">
         <v>170</v>
       </c>
       <c r="J213">
@@ -8782,8 +9410,11 @@
       <c r="K213">
         <v>7</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>21</v>
       </c>
@@ -8808,7 +9439,7 @@
       <c r="H214" t="s">
         <v>123</v>
       </c>
-      <c r="I214" s="1" t="s">
+      <c r="I214" t="s">
         <v>170</v>
       </c>
       <c r="J214">
@@ -8817,8 +9448,11 @@
       <c r="K214">
         <v>7</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>21</v>
       </c>
@@ -8843,7 +9477,7 @@
       <c r="H215" t="s">
         <v>123</v>
       </c>
-      <c r="I215" s="1" t="s">
+      <c r="I215" t="s">
         <v>170</v>
       </c>
       <c r="J215">
@@ -8852,8 +9486,11 @@
       <c r="K215">
         <v>7</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>21</v>
       </c>
@@ -8878,7 +9515,7 @@
       <c r="H216" t="s">
         <v>123</v>
       </c>
-      <c r="I216" s="1" t="s">
+      <c r="I216" t="s">
         <v>170</v>
       </c>
       <c r="J216">
@@ -8887,8 +9524,11 @@
       <c r="K216">
         <v>7</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>21</v>
       </c>
@@ -8913,7 +9553,7 @@
       <c r="H217" t="s">
         <v>123</v>
       </c>
-      <c r="I217" s="1" t="s">
+      <c r="I217" t="s">
         <v>170</v>
       </c>
       <c r="J217">
@@ -8922,8 +9562,11 @@
       <c r="K217">
         <v>7</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>21</v>
       </c>
@@ -8948,7 +9591,7 @@
       <c r="H218" t="s">
         <v>123</v>
       </c>
-      <c r="I218" s="1" t="s">
+      <c r="I218" t="s">
         <v>170</v>
       </c>
       <c r="J218">
@@ -8957,8 +9600,11 @@
       <c r="K218">
         <v>7</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>21</v>
       </c>
@@ -8983,7 +9629,7 @@
       <c r="H219" t="s">
         <v>123</v>
       </c>
-      <c r="I219" s="1" t="s">
+      <c r="I219" t="s">
         <v>170</v>
       </c>
       <c r="J219">
@@ -8992,8 +9638,11 @@
       <c r="K219">
         <v>7</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>21</v>
       </c>
@@ -9018,7 +9667,7 @@
       <c r="H220" t="s">
         <v>123</v>
       </c>
-      <c r="I220" s="1" t="s">
+      <c r="I220" t="s">
         <v>170</v>
       </c>
       <c r="J220">
@@ -9027,8 +9676,11 @@
       <c r="K220">
         <v>7</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>21</v>
       </c>
@@ -9053,7 +9705,7 @@
       <c r="H221" t="s">
         <v>123</v>
       </c>
-      <c r="I221" s="1" t="s">
+      <c r="I221" t="s">
         <v>170</v>
       </c>
       <c r="J221">
@@ -9062,8 +9714,11 @@
       <c r="K221">
         <v>7</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>21</v>
       </c>
@@ -9088,7 +9743,7 @@
       <c r="H222" t="s">
         <v>123</v>
       </c>
-      <c r="I222" s="1" t="s">
+      <c r="I222" t="s">
         <v>170</v>
       </c>
       <c r="J222">
@@ -9097,8 +9752,11 @@
       <c r="K222">
         <v>7</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>21</v>
       </c>
@@ -9123,7 +9781,7 @@
       <c r="H223" t="s">
         <v>123</v>
       </c>
-      <c r="I223" s="1" t="s">
+      <c r="I223" t="s">
         <v>170</v>
       </c>
       <c r="J223">
@@ -9132,8 +9790,11 @@
       <c r="K223">
         <v>7</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>21</v>
       </c>
@@ -9158,7 +9819,7 @@
       <c r="H224" t="s">
         <v>123</v>
       </c>
-      <c r="I224" s="1" t="s">
+      <c r="I224" t="s">
         <v>170</v>
       </c>
       <c r="J224">
@@ -9167,8 +9828,11 @@
       <c r="K224">
         <v>7</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>21</v>
       </c>
@@ -9193,7 +9857,7 @@
       <c r="H225" t="s">
         <v>123</v>
       </c>
-      <c r="I225" s="1" t="s">
+      <c r="I225" t="s">
         <v>170</v>
       </c>
       <c r="J225">
@@ -9202,8 +9866,11 @@
       <c r="K225">
         <v>7</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>21</v>
       </c>
@@ -9228,7 +9895,7 @@
       <c r="H226" t="s">
         <v>123</v>
       </c>
-      <c r="I226" s="1" t="s">
+      <c r="I226" t="s">
         <v>170</v>
       </c>
       <c r="J226">
@@ -9237,8 +9904,11 @@
       <c r="K226">
         <v>7</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>21</v>
       </c>
@@ -9263,7 +9933,7 @@
       <c r="H227" t="s">
         <v>123</v>
       </c>
-      <c r="I227" s="1" t="s">
+      <c r="I227" t="s">
         <v>170</v>
       </c>
       <c r="J227">
@@ -9272,8 +9942,11 @@
       <c r="K227">
         <v>7</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>21</v>
       </c>
@@ -9298,7 +9971,7 @@
       <c r="H228" t="s">
         <v>123</v>
       </c>
-      <c r="I228" s="1" t="s">
+      <c r="I228" t="s">
         <v>170</v>
       </c>
       <c r="J228">
@@ -9307,8 +9980,11 @@
       <c r="K228">
         <v>7</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>21</v>
       </c>
@@ -9333,7 +10009,7 @@
       <c r="H229" t="s">
         <v>123</v>
       </c>
-      <c r="I229" s="1" t="s">
+      <c r="I229" t="s">
         <v>170</v>
       </c>
       <c r="J229">
@@ -9342,8 +10018,11 @@
       <c r="K229">
         <v>7</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>21</v>
       </c>
@@ -9368,7 +10047,7 @@
       <c r="H230" t="s">
         <v>123</v>
       </c>
-      <c r="I230" s="1" t="s">
+      <c r="I230" t="s">
         <v>170</v>
       </c>
       <c r="J230">
@@ -9377,8 +10056,11 @@
       <c r="K230">
         <v>7</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>21</v>
       </c>
@@ -9403,7 +10085,7 @@
       <c r="H231" t="s">
         <v>123</v>
       </c>
-      <c r="I231" s="1" t="s">
+      <c r="I231" t="s">
         <v>170</v>
       </c>
       <c r="J231">
@@ -9412,8 +10094,11 @@
       <c r="K231">
         <v>7</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>21</v>
       </c>
@@ -9438,7 +10123,7 @@
       <c r="H232" t="s">
         <v>123</v>
       </c>
-      <c r="I232" s="1" t="s">
+      <c r="I232" t="s">
         <v>170</v>
       </c>
       <c r="J232">
@@ -9447,8 +10132,11 @@
       <c r="K232">
         <v>7</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>21</v>
       </c>
@@ -9473,7 +10161,7 @@
       <c r="H233" t="s">
         <v>123</v>
       </c>
-      <c r="I233" s="1" t="s">
+      <c r="I233" t="s">
         <v>170</v>
       </c>
       <c r="J233">
@@ -9482,8 +10170,11 @@
       <c r="K233">
         <v>7</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>21</v>
       </c>
@@ -9508,7 +10199,7 @@
       <c r="H234" t="s">
         <v>123</v>
       </c>
-      <c r="I234" s="1" t="s">
+      <c r="I234" t="s">
         <v>2</v>
       </c>
       <c r="J234">
@@ -9517,8 +10208,11 @@
       <c r="N234">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>21</v>
       </c>
@@ -9543,7 +10237,7 @@
       <c r="H235" t="s">
         <v>123</v>
       </c>
-      <c r="I235" s="1" t="s">
+      <c r="I235" t="s">
         <v>2</v>
       </c>
       <c r="J235">
@@ -9552,8 +10246,11 @@
       <c r="N235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>21</v>
       </c>
@@ -9578,7 +10275,7 @@
       <c r="H236" t="s">
         <v>123</v>
       </c>
-      <c r="I236" s="1" t="s">
+      <c r="I236" t="s">
         <v>2</v>
       </c>
       <c r="J236">
@@ -9587,8 +10284,11 @@
       <c r="N236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>21</v>
       </c>
@@ -9613,7 +10313,7 @@
       <c r="H237" t="s">
         <v>123</v>
       </c>
-      <c r="I237" s="1" t="s">
+      <c r="I237" t="s">
         <v>2</v>
       </c>
       <c r="J237">
@@ -9622,8 +10322,11 @@
       <c r="N237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>21</v>
       </c>
@@ -9648,7 +10351,7 @@
       <c r="H238" t="s">
         <v>123</v>
       </c>
-      <c r="I238" s="1" t="s">
+      <c r="I238" t="s">
         <v>2</v>
       </c>
       <c r="J238">
@@ -9657,8 +10360,11 @@
       <c r="N238">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>21</v>
       </c>
@@ -9683,7 +10389,7 @@
       <c r="H239" t="s">
         <v>123</v>
       </c>
-      <c r="I239" s="1" t="s">
+      <c r="I239" t="s">
         <v>2</v>
       </c>
       <c r="J239">
@@ -9692,8 +10398,11 @@
       <c r="N239">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>21</v>
       </c>
@@ -9718,7 +10427,7 @@
       <c r="H240" t="s">
         <v>123</v>
       </c>
-      <c r="I240" s="1" t="s">
+      <c r="I240" t="s">
         <v>2</v>
       </c>
       <c r="J240">
@@ -9727,8 +10436,11 @@
       <c r="N240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>21</v>
       </c>
@@ -9753,7 +10465,7 @@
       <c r="H241" t="s">
         <v>123</v>
       </c>
-      <c r="I241" s="1" t="s">
+      <c r="I241" t="s">
         <v>170</v>
       </c>
       <c r="J241">
@@ -9762,8 +10474,11 @@
       <c r="K241">
         <v>7</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>21</v>
       </c>
@@ -9788,7 +10503,7 @@
       <c r="H242" t="s">
         <v>123</v>
       </c>
-      <c r="I242" s="1" t="s">
+      <c r="I242" t="s">
         <v>170</v>
       </c>
       <c r="J242">
@@ -9797,8 +10512,11 @@
       <c r="K242">
         <v>7</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>21</v>
       </c>
@@ -9823,7 +10541,7 @@
       <c r="H243" t="s">
         <v>123</v>
       </c>
-      <c r="I243" s="1" t="s">
+      <c r="I243" t="s">
         <v>170</v>
       </c>
       <c r="J243">
@@ -9832,8 +10550,11 @@
       <c r="K243">
         <v>7</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>21</v>
       </c>
@@ -9858,7 +10579,7 @@
       <c r="H244" t="s">
         <v>123</v>
       </c>
-      <c r="I244" s="1" t="s">
+      <c r="I244" t="s">
         <v>170</v>
       </c>
       <c r="J244">
@@ -9867,8 +10588,11 @@
       <c r="K244">
         <v>7</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>21</v>
       </c>
@@ -9893,7 +10617,7 @@
       <c r="H245" t="s">
         <v>123</v>
       </c>
-      <c r="I245" s="1" t="s">
+      <c r="I245" t="s">
         <v>170</v>
       </c>
       <c r="J245">
@@ -9902,8 +10626,11 @@
       <c r="K245">
         <v>7</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>21</v>
       </c>
@@ -9928,7 +10655,7 @@
       <c r="H246" t="s">
         <v>123</v>
       </c>
-      <c r="I246" s="1" t="s">
+      <c r="I246" t="s">
         <v>170</v>
       </c>
       <c r="J246">
@@ -9937,8 +10664,11 @@
       <c r="K246">
         <v>7</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>21</v>
       </c>
@@ -9963,7 +10693,7 @@
       <c r="H247" t="s">
         <v>123</v>
       </c>
-      <c r="I247" s="1" t="s">
+      <c r="I247" t="s">
         <v>170</v>
       </c>
       <c r="J247">
@@ -9972,8 +10702,11 @@
       <c r="K247">
         <v>7</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>21</v>
       </c>
@@ -9998,7 +10731,7 @@
       <c r="H248" t="s">
         <v>123</v>
       </c>
-      <c r="I248" s="1" t="s">
+      <c r="I248" t="s">
         <v>170</v>
       </c>
       <c r="J248">
@@ -10007,8 +10740,11 @@
       <c r="K248">
         <v>7</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>21</v>
       </c>
@@ -10033,7 +10769,7 @@
       <c r="H249" t="s">
         <v>123</v>
       </c>
-      <c r="I249" s="1" t="s">
+      <c r="I249" t="s">
         <v>170</v>
       </c>
       <c r="J249">
@@ -10042,8 +10778,11 @@
       <c r="K249">
         <v>7</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>21</v>
       </c>
@@ -10068,7 +10807,7 @@
       <c r="H250" t="s">
         <v>123</v>
       </c>
-      <c r="I250" s="1" t="s">
+      <c r="I250" t="s">
         <v>170</v>
       </c>
       <c r="J250">
@@ -10077,8 +10816,11 @@
       <c r="K250">
         <v>7</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>21</v>
       </c>
@@ -10103,7 +10845,7 @@
       <c r="H251" t="s">
         <v>123</v>
       </c>
-      <c r="I251" s="1" t="s">
+      <c r="I251" t="s">
         <v>170</v>
       </c>
       <c r="J251">
@@ -10112,8 +10854,11 @@
       <c r="K251">
         <v>7</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>21</v>
       </c>
@@ -10138,7 +10883,7 @@
       <c r="H252" t="s">
         <v>123</v>
       </c>
-      <c r="I252" s="1" t="s">
+      <c r="I252" t="s">
         <v>170</v>
       </c>
       <c r="J252">
@@ -10147,8 +10892,11 @@
       <c r="K252">
         <v>7</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>21</v>
       </c>
@@ -10173,7 +10921,7 @@
       <c r="H253" t="s">
         <v>123</v>
       </c>
-      <c r="I253" s="1" t="s">
+      <c r="I253" t="s">
         <v>170</v>
       </c>
       <c r="J253">
@@ -10182,8 +10930,11 @@
       <c r="K253">
         <v>7</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>21</v>
       </c>
@@ -10208,7 +10959,7 @@
       <c r="H254" t="s">
         <v>123</v>
       </c>
-      <c r="I254" s="1" t="s">
+      <c r="I254" t="s">
         <v>170</v>
       </c>
       <c r="J254">
@@ -10217,8 +10968,11 @@
       <c r="K254">
         <v>7</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>21</v>
       </c>
@@ -10243,7 +10997,7 @@
       <c r="H255" t="s">
         <v>123</v>
       </c>
-      <c r="I255" s="1" t="s">
+      <c r="I255" t="s">
         <v>170</v>
       </c>
       <c r="J255">
@@ -10252,8 +11006,11 @@
       <c r="K255">
         <v>7</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>21</v>
       </c>
@@ -10278,7 +11035,7 @@
       <c r="H256" t="s">
         <v>123</v>
       </c>
-      <c r="I256" s="1" t="s">
+      <c r="I256" t="s">
         <v>170</v>
       </c>
       <c r="J256">
@@ -10287,8 +11044,11 @@
       <c r="K256">
         <v>7</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>21</v>
       </c>
@@ -10313,7 +11073,7 @@
       <c r="H257" t="s">
         <v>123</v>
       </c>
-      <c r="I257" s="1" t="s">
+      <c r="I257" t="s">
         <v>170</v>
       </c>
       <c r="J257">
@@ -10322,8 +11082,11 @@
       <c r="K257">
         <v>7</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>21</v>
       </c>
@@ -10348,7 +11111,7 @@
       <c r="H258" t="s">
         <v>123</v>
       </c>
-      <c r="I258" s="1" t="s">
+      <c r="I258" t="s">
         <v>170</v>
       </c>
       <c r="J258">
@@ -10357,8 +11120,11 @@
       <c r="K258">
         <v>7</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>21</v>
       </c>
@@ -10383,7 +11149,7 @@
       <c r="H259" t="s">
         <v>123</v>
       </c>
-      <c r="I259" s="1" t="s">
+      <c r="I259" t="s">
         <v>170</v>
       </c>
       <c r="J259">
@@ -10392,8 +11158,11 @@
       <c r="K259">
         <v>7</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>21</v>
       </c>
@@ -10418,7 +11187,7 @@
       <c r="H260" t="s">
         <v>123</v>
       </c>
-      <c r="I260" s="1" t="s">
+      <c r="I260" t="s">
         <v>170</v>
       </c>
       <c r="J260">
@@ -10427,8 +11196,11 @@
       <c r="K260">
         <v>7</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>21</v>
       </c>
@@ -10453,7 +11225,7 @@
       <c r="H261" t="s">
         <v>123</v>
       </c>
-      <c r="I261" s="1" t="s">
+      <c r="I261" t="s">
         <v>170</v>
       </c>
       <c r="J261">
@@ -10462,8 +11234,11 @@
       <c r="K261">
         <v>7</v>
       </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>21</v>
       </c>
@@ -10488,7 +11263,7 @@
       <c r="H262" t="s">
         <v>123</v>
       </c>
-      <c r="I262" s="1" t="s">
+      <c r="I262" t="s">
         <v>170</v>
       </c>
       <c r="J262">
@@ -10497,8 +11272,11 @@
       <c r="K262">
         <v>7</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>21</v>
       </c>
@@ -10523,7 +11301,7 @@
       <c r="H263" t="s">
         <v>123</v>
       </c>
-      <c r="I263" s="1" t="s">
+      <c r="I263" t="s">
         <v>170</v>
       </c>
       <c r="J263">
@@ -10532,8 +11310,11 @@
       <c r="K263">
         <v>7</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>21</v>
       </c>
@@ -10558,7 +11339,7 @@
       <c r="H264" t="s">
         <v>123</v>
       </c>
-      <c r="I264" s="1" t="s">
+      <c r="I264" t="s">
         <v>170</v>
       </c>
       <c r="J264">
@@ -10567,8 +11348,11 @@
       <c r="K264">
         <v>7</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>21</v>
       </c>
@@ -10593,7 +11377,7 @@
       <c r="H265" t="s">
         <v>123</v>
       </c>
-      <c r="I265" s="1" t="s">
+      <c r="I265" t="s">
         <v>170</v>
       </c>
       <c r="J265">
@@ -10602,8 +11386,11 @@
       <c r="K265">
         <v>7</v>
       </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>21</v>
       </c>
@@ -10628,7 +11415,7 @@
       <c r="H266" t="s">
         <v>123</v>
       </c>
-      <c r="I266" s="1" t="s">
+      <c r="I266" t="s">
         <v>170</v>
       </c>
       <c r="J266">
@@ -10637,8 +11424,11 @@
       <c r="K266">
         <v>7</v>
       </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>21</v>
       </c>
@@ -10663,7 +11453,7 @@
       <c r="H267" t="s">
         <v>123</v>
       </c>
-      <c r="I267" s="1" t="s">
+      <c r="I267" t="s">
         <v>170</v>
       </c>
       <c r="J267">
@@ -10671,6 +11461,9 @@
       </c>
       <c r="K267">
         <v>7</v>
+      </c>
+      <c r="O267">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10680,10 +11473,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10691,54 +11484,57 @@
     <col min="3" max="3" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -10754,11 +11550,11 @@
       <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -10774,11 +11570,11 @@
       <c r="E3" t="s">
         <v>32</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -10794,11 +11590,11 @@
       <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -10814,11 +11610,11 @@
       <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -10834,11 +11630,11 @@
       <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -10854,11 +11650,11 @@
       <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -10874,11 +11670,11 @@
       <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -10894,11 +11690,11 @@
       <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -10914,11 +11710,11 @@
       <c r="E10" t="s">
         <v>32</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -10934,11 +11730,11 @@
       <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -10954,11 +11750,11 @@
       <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -10974,11 +11770,11 @@
       <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -10994,11 +11790,11 @@
       <c r="E14" t="s">
         <v>32</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -11014,11 +11810,11 @@
       <c r="E15" t="s">
         <v>32</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -11034,11 +11830,11 @@
       <c r="E16" t="s">
         <v>32</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -11054,11 +11850,11 @@
       <c r="E17" t="s">
         <v>32</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -11074,11 +11870,11 @@
       <c r="E18" t="s">
         <v>32</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -11094,11 +11890,11 @@
       <c r="E19" t="s">
         <v>32</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -11114,11 +11910,11 @@
       <c r="E20" t="s">
         <v>32</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -11134,11 +11930,11 @@
       <c r="E21" t="s">
         <v>32</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -11154,11 +11950,11 @@
       <c r="E22" t="s">
         <v>32</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -11174,11 +11970,11 @@
       <c r="E23" t="s">
         <v>32</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -11194,11 +11990,11 @@
       <c r="E24" t="s">
         <v>32</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -11214,11 +12010,11 @@
       <c r="E25" t="s">
         <v>32</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -11234,11 +12030,11 @@
       <c r="E26" t="s">
         <v>32</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -11254,11 +12050,11 @@
       <c r="E27" t="s">
         <v>32</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -11274,11 +12070,11 @@
       <c r="E28" t="s">
         <v>32</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -11294,11 +12090,11 @@
       <c r="E29" t="s">
         <v>32</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -11314,11 +12110,11 @@
       <c r="E30" t="s">
         <v>32</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -11334,11 +12130,11 @@
       <c r="E31" t="s">
         <v>32</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -11354,11 +12150,11 @@
       <c r="E32" t="s">
         <v>32</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -11374,11 +12170,11 @@
       <c r="E33" t="s">
         <v>32</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -11394,11 +12190,11 @@
       <c r="E34" t="s">
         <v>32</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -11414,11 +12210,11 @@
       <c r="E35" t="s">
         <v>32</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -11434,11 +12230,11 @@
       <c r="E36" t="s">
         <v>32</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -11454,11 +12250,11 @@
       <c r="E37" t="s">
         <v>32</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -11474,11 +12270,11 @@
       <c r="E38" t="s">
         <v>32</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -11494,11 +12290,11 @@
       <c r="E39" t="s">
         <v>32</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -11514,11 +12310,11 @@
       <c r="E40" t="s">
         <v>32</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -11534,11 +12330,11 @@
       <c r="E41" t="s">
         <v>32</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -11554,11 +12350,11 @@
       <c r="E42" t="s">
         <v>32</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -11574,7 +12370,7 @@
       <c r="E43" t="s">
         <v>32</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>33</v>
       </c>
     </row>
@@ -11585,10 +12381,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11596,54 +12392,57 @@
     <col min="3" max="3" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -11659,11 +12458,11 @@
       <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -11679,11 +12478,11 @@
       <c r="E3" t="s">
         <v>39</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -11699,11 +12498,11 @@
       <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -11719,11 +12518,11 @@
       <c r="E5" t="s">
         <v>39</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -11739,11 +12538,11 @@
       <c r="E6" t="s">
         <v>37</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -11759,11 +12558,11 @@
       <c r="E7" t="s">
         <v>39</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -11779,11 +12578,11 @@
       <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -11799,11 +12598,11 @@
       <c r="E9" t="s">
         <v>39</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -11819,11 +12618,11 @@
       <c r="E10" t="s">
         <v>37</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -11839,11 +12638,11 @@
       <c r="E11" t="s">
         <v>39</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -11859,11 +12658,11 @@
       <c r="E12" t="s">
         <v>37</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -11879,11 +12678,11 @@
       <c r="E13" t="s">
         <v>39</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -11899,11 +12698,11 @@
       <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -11919,11 +12718,11 @@
       <c r="E15" t="s">
         <v>39</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -11939,11 +12738,11 @@
       <c r="E16" t="s">
         <v>37</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -11959,11 +12758,11 @@
       <c r="E17" t="s">
         <v>39</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -11979,11 +12778,11 @@
       <c r="E18" t="s">
         <v>37</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -11999,11 +12798,11 @@
       <c r="E19" t="s">
         <v>39</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -12019,11 +12818,11 @@
       <c r="E20" t="s">
         <v>37</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -12039,11 +12838,11 @@
       <c r="E21" t="s">
         <v>39</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -12059,11 +12858,11 @@
       <c r="E22" t="s">
         <v>37</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -12079,11 +12878,11 @@
       <c r="E23" t="s">
         <v>39</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -12099,11 +12898,11 @@
       <c r="E24" t="s">
         <v>37</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -12119,11 +12918,11 @@
       <c r="E25" t="s">
         <v>39</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -12139,11 +12938,11 @@
       <c r="E26" t="s">
         <v>37</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -12159,11 +12958,11 @@
       <c r="E27" t="s">
         <v>39</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -12179,11 +12978,11 @@
       <c r="E28" t="s">
         <v>37</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -12199,11 +12998,11 @@
       <c r="E29" t="s">
         <v>39</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -12219,11 +13018,11 @@
       <c r="E30" t="s">
         <v>37</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -12239,11 +13038,11 @@
       <c r="E31" t="s">
         <v>39</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -12259,11 +13058,11 @@
       <c r="E32" t="s">
         <v>37</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -12279,11 +13078,11 @@
       <c r="E33" t="s">
         <v>39</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -12299,11 +13098,11 @@
       <c r="E34" t="s">
         <v>37</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -12319,11 +13118,11 @@
       <c r="E35" t="s">
         <v>39</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -12339,11 +13138,11 @@
       <c r="E36" t="s">
         <v>37</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -12359,11 +13158,11 @@
       <c r="E37" t="s">
         <v>39</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -12379,11 +13178,11 @@
       <c r="E38" t="s">
         <v>37</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -12399,11 +13198,11 @@
       <c r="E39" t="s">
         <v>39</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -12419,11 +13218,11 @@
       <c r="E40" t="s">
         <v>37</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -12439,11 +13238,11 @@
       <c r="E41" t="s">
         <v>39</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -12459,11 +13258,11 @@
       <c r="E42" t="s">
         <v>37</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -12479,11 +13278,11 @@
       <c r="E43" t="s">
         <v>39</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -12499,11 +13298,11 @@
       <c r="E44" t="s">
         <v>37</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -12519,11 +13318,11 @@
       <c r="E45" t="s">
         <v>39</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -12539,11 +13338,11 @@
       <c r="E46" t="s">
         <v>37</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -12559,11 +13358,11 @@
       <c r="E47" t="s">
         <v>39</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -12579,11 +13378,11 @@
       <c r="E48" t="s">
         <v>37</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -12599,11 +13398,11 @@
       <c r="E49" t="s">
         <v>39</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -12619,11 +13418,11 @@
       <c r="E50" t="s">
         <v>37</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -12639,11 +13438,11 @@
       <c r="E51" t="s">
         <v>39</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -12659,11 +13458,11 @@
       <c r="E52" t="s">
         <v>37</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -12679,11 +13478,11 @@
       <c r="E53" t="s">
         <v>39</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -12699,11 +13498,11 @@
       <c r="E54" t="s">
         <v>37</v>
       </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -12719,11 +13518,11 @@
       <c r="E55" t="s">
         <v>39</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -12739,11 +13538,11 @@
       <c r="E56" t="s">
         <v>37</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -12759,11 +13558,11 @@
       <c r="E57" t="s">
         <v>39</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -12779,11 +13578,11 @@
       <c r="E58" t="s">
         <v>37</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -12799,11 +13598,11 @@
       <c r="E59" t="s">
         <v>39</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -12819,11 +13618,11 @@
       <c r="E60" t="s">
         <v>37</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -12839,11 +13638,11 @@
       <c r="E61" t="s">
         <v>39</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -12859,11 +13658,11 @@
       <c r="E62" t="s">
         <v>37</v>
       </c>
-      <c r="O62" t="s">
+      <c r="P62" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>21</v>
       </c>
@@ -12879,11 +13678,11 @@
       <c r="E63" t="s">
         <v>39</v>
       </c>
-      <c r="O63" t="s">
+      <c r="P63" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -12899,11 +13698,11 @@
       <c r="E64" t="s">
         <v>37</v>
       </c>
-      <c r="O64" t="s">
+      <c r="P64" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -12919,11 +13718,11 @@
       <c r="E65" t="s">
         <v>39</v>
       </c>
-      <c r="O65" t="s">
+      <c r="P65" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -12939,11 +13738,11 @@
       <c r="E66" t="s">
         <v>37</v>
       </c>
-      <c r="O66" t="s">
+      <c r="P66" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -12959,11 +13758,11 @@
       <c r="E67" t="s">
         <v>39</v>
       </c>
-      <c r="O67" t="s">
+      <c r="P67" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>21</v>
       </c>
@@ -12979,11 +13778,11 @@
       <c r="E68" t="s">
         <v>37</v>
       </c>
-      <c r="O68" t="s">
+      <c r="P68" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -12999,11 +13798,11 @@
       <c r="E69" t="s">
         <v>39</v>
       </c>
-      <c r="O69" t="s">
+      <c r="P69" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -13019,11 +13818,11 @@
       <c r="E70" t="s">
         <v>37</v>
       </c>
-      <c r="O70" t="s">
+      <c r="P70" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -13039,11 +13838,11 @@
       <c r="E71" t="s">
         <v>39</v>
       </c>
-      <c r="O71" t="s">
+      <c r="P71" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -13059,11 +13858,11 @@
       <c r="E72" t="s">
         <v>37</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -13079,11 +13878,11 @@
       <c r="E73" t="s">
         <v>39</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -13099,11 +13898,11 @@
       <c r="E74" t="s">
         <v>37</v>
       </c>
-      <c r="O74" t="s">
+      <c r="P74" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -13119,11 +13918,11 @@
       <c r="E75" t="s">
         <v>39</v>
       </c>
-      <c r="O75" t="s">
+      <c r="P75" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>21</v>
       </c>
@@ -13139,11 +13938,11 @@
       <c r="E76" t="s">
         <v>37</v>
       </c>
-      <c r="O76" t="s">
+      <c r="P76" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -13159,11 +13958,11 @@
       <c r="E77" t="s">
         <v>39</v>
       </c>
-      <c r="O77" t="s">
+      <c r="P77" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>21</v>
       </c>
@@ -13179,11 +13978,11 @@
       <c r="E78" t="s">
         <v>37</v>
       </c>
-      <c r="O78" t="s">
+      <c r="P78" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>21</v>
       </c>
@@ -13199,11 +13998,11 @@
       <c r="E79" t="s">
         <v>39</v>
       </c>
-      <c r="O79" t="s">
+      <c r="P79" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>21</v>
       </c>
@@ -13219,11 +14018,11 @@
       <c r="E80" t="s">
         <v>39</v>
       </c>
-      <c r="O80" t="s">
+      <c r="P80" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>21</v>
       </c>
@@ -13239,11 +14038,11 @@
       <c r="E81" t="s">
         <v>37</v>
       </c>
-      <c r="O81" t="s">
+      <c r="P81" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>21</v>
       </c>
@@ -13259,11 +14058,11 @@
       <c r="E82" t="s">
         <v>37</v>
       </c>
-      <c r="O82" t="s">
+      <c r="P82" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>21</v>
       </c>
@@ -13279,11 +14078,11 @@
       <c r="E83" t="s">
         <v>39</v>
       </c>
-      <c r="O83" t="s">
+      <c r="P83" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>21</v>
       </c>
@@ -13299,11 +14098,11 @@
       <c r="E84" t="s">
         <v>37</v>
       </c>
-      <c r="O84" t="s">
+      <c r="P84" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>21</v>
       </c>
@@ -13319,7 +14118,7 @@
       <c r="E85" t="s">
         <v>39</v>
       </c>
-      <c r="O85" t="s">
+      <c r="P85" t="s">
         <v>41</v>
       </c>
     </row>
@@ -13330,10 +14129,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13341,54 +14140,57 @@
     <col min="3" max="3" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -13404,11 +14206,11 @@
       <c r="E2" t="s">
         <v>35</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -13424,11 +14226,11 @@
       <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -13444,11 +14246,11 @@
       <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -13464,11 +14266,11 @@
       <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -13484,11 +14286,11 @@
       <c r="E6" t="s">
         <v>35</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -13504,11 +14306,11 @@
       <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -13524,11 +14326,11 @@
       <c r="E8" t="s">
         <v>35</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -13544,11 +14346,11 @@
       <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -13564,11 +14366,11 @@
       <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -13584,11 +14386,11 @@
       <c r="E11" t="s">
         <v>35</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -13604,11 +14406,11 @@
       <c r="E12" t="s">
         <v>35</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -13624,11 +14426,11 @@
       <c r="E13" t="s">
         <v>35</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -13644,11 +14446,11 @@
       <c r="E14" t="s">
         <v>35</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -13664,11 +14466,11 @@
       <c r="E15" t="s">
         <v>35</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -13684,11 +14486,11 @@
       <c r="E16" t="s">
         <v>35</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -13704,11 +14506,11 @@
       <c r="E17" t="s">
         <v>35</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -13724,11 +14526,11 @@
       <c r="E18" t="s">
         <v>35</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -13744,11 +14546,11 @@
       <c r="E19" t="s">
         <v>35</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -13764,11 +14566,11 @@
       <c r="E20" t="s">
         <v>35</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -13784,11 +14586,11 @@
       <c r="E21" t="s">
         <v>35</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -13804,11 +14606,11 @@
       <c r="E22" t="s">
         <v>35</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -13824,11 +14626,11 @@
       <c r="E23" t="s">
         <v>35</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -13844,11 +14646,11 @@
       <c r="E24" t="s">
         <v>35</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -13864,11 +14666,11 @@
       <c r="E25" t="s">
         <v>35</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -13884,11 +14686,11 @@
       <c r="E26" t="s">
         <v>35</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -13904,11 +14706,11 @@
       <c r="E27" t="s">
         <v>35</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -13924,11 +14726,11 @@
       <c r="E28" t="s">
         <v>35</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -13944,11 +14746,11 @@
       <c r="E29" t="s">
         <v>35</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -13964,11 +14766,11 @@
       <c r="E30" t="s">
         <v>35</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -13984,11 +14786,11 @@
       <c r="E31" t="s">
         <v>35</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -14004,11 +14806,11 @@
       <c r="E32" t="s">
         <v>35</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -14024,11 +14826,11 @@
       <c r="E33" t="s">
         <v>35</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -14044,11 +14846,11 @@
       <c r="E34" t="s">
         <v>35</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -14064,11 +14866,11 @@
       <c r="E35" t="s">
         <v>35</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -14084,11 +14886,11 @@
       <c r="E36" t="s">
         <v>35</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -14104,11 +14906,11 @@
       <c r="E37" t="s">
         <v>35</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -14124,11 +14926,11 @@
       <c r="E38" t="s">
         <v>35</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -14144,11 +14946,11 @@
       <c r="E39" t="s">
         <v>35</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -14164,11 +14966,11 @@
       <c r="E40" t="s">
         <v>35</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -14184,11 +14986,11 @@
       <c r="E41" t="s">
         <v>35</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -14204,11 +15006,11 @@
       <c r="E42" t="s">
         <v>35</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -14224,7 +15026,7 @@
       <c r="E43" t="s">
         <v>35</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -14235,58 +15037,61 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A85E1B4-6E48-9643-B927-0FB77A3D9FCF}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P1" t="s">
         <v>18</v>
       </c>
     </row>
